--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ngf-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ngf-Sort1.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ngf</t>
+  </si>
+  <si>
+    <t>Sort1</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Ngf</t>
-  </si>
-  <si>
-    <t>Sort1</t>
-  </si>
-  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9523829999999999</v>
+        <v>1.808798</v>
       </c>
       <c r="H2">
-        <v>2.857149</v>
+        <v>5.426394</v>
       </c>
       <c r="I2">
-        <v>0.04618630532204829</v>
+        <v>0.36666838522954</v>
       </c>
       <c r="J2">
-        <v>0.06493209518353291</v>
+        <v>0.4612006375427627</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9703876666666665</v>
+        <v>0.4260053333333333</v>
       </c>
       <c r="N2">
-        <v>2.911163</v>
+        <v>1.278016</v>
       </c>
       <c r="O2">
-        <v>0.03945299285965206</v>
+        <v>0.02405532912416773</v>
       </c>
       <c r="P2">
-        <v>0.04754668824173518</v>
+        <v>0.02531756756689831</v>
       </c>
       <c r="Q2">
-        <v>0.9241807171429998</v>
+        <v>0.7705575949226667</v>
       </c>
       <c r="R2">
-        <v>8.317626454286998</v>
+        <v>6.935018354304001</v>
       </c>
       <c r="S2">
-        <v>0.001822187974084481</v>
+        <v>0.008820328686123705</v>
       </c>
       <c r="T2">
-        <v>0.003087306086574114</v>
+        <v>0.01167647830288547</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9523829999999999</v>
+        <v>1.808798</v>
       </c>
       <c r="H3">
-        <v>2.857149</v>
+        <v>5.426394</v>
       </c>
       <c r="I3">
-        <v>0.04618630532204829</v>
+        <v>0.36666838522954</v>
       </c>
       <c r="J3">
-        <v>0.06493209518353291</v>
+        <v>0.4612006375427627</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.123578</v>
       </c>
       <c r="O3">
-        <v>0.04233170747586662</v>
+        <v>0.05879323641880037</v>
       </c>
       <c r="P3">
-        <v>0.05101596487889641</v>
+        <v>0.06187825274916518</v>
       </c>
       <c r="Q3">
-        <v>0.9916141954579999</v>
+        <v>1.883307213081334</v>
       </c>
       <c r="R3">
-        <v>8.924527759122</v>
+        <v>16.949764917732</v>
       </c>
       <c r="S3">
-        <v>0.00195514516628401</v>
+        <v>0.02155762106010011</v>
       </c>
       <c r="T3">
-        <v>0.003312573487396274</v>
+        <v>0.02853828961794719</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9523829999999999</v>
+        <v>1.808798</v>
       </c>
       <c r="H4">
-        <v>2.857149</v>
+        <v>5.426394</v>
       </c>
       <c r="I4">
-        <v>0.04618630532204829</v>
+        <v>0.36666838522954</v>
       </c>
       <c r="J4">
-        <v>0.06493209518353291</v>
+        <v>0.4612006375427627</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.170211333333333</v>
+        <v>5.850740666666667</v>
       </c>
       <c r="N4">
-        <v>15.510634</v>
+        <v>17.552222</v>
       </c>
       <c r="O4">
-        <v>0.2102049704707969</v>
+        <v>0.3303749538898241</v>
       </c>
       <c r="P4">
-        <v>0.2533280614069559</v>
+        <v>0.3477104875323931</v>
       </c>
       <c r="Q4">
-        <v>4.924021380274</v>
+        <v>10.58280801638533</v>
       </c>
       <c r="R4">
-        <v>44.316192422466</v>
+        <v>95.245272147468</v>
       </c>
       <c r="S4">
-        <v>0.009708590946376373</v>
+        <v>0.1211380508630656</v>
       </c>
       <c r="T4">
-        <v>0.01644912179593633</v>
+        <v>0.1603642985302446</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9523829999999999</v>
+        <v>1.808798</v>
       </c>
       <c r="H5">
-        <v>2.857149</v>
+        <v>5.426394</v>
       </c>
       <c r="I5">
-        <v>0.04618630532204829</v>
+        <v>0.36666838522954</v>
       </c>
       <c r="J5">
-        <v>0.06493209518353291</v>
+        <v>0.4612006375427627</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.56068</v>
+        <v>2.648771</v>
       </c>
       <c r="N5">
-        <v>25.12136</v>
+        <v>5.297542</v>
       </c>
       <c r="O5">
-        <v>0.5106788094851177</v>
+        <v>0.1495686865725097</v>
       </c>
       <c r="P5">
-        <v>0.4102956351562577</v>
+        <v>0.1049445996947469</v>
       </c>
       <c r="Q5">
-        <v>11.96257810044</v>
+        <v>4.791091687258</v>
       </c>
       <c r="R5">
-        <v>71.77546860263999</v>
+        <v>28.746550123548</v>
       </c>
       <c r="S5">
-        <v>0.02358636741637977</v>
+        <v>0.05484210878644533</v>
       </c>
       <c r="T5">
-        <v>0.02664135523535422</v>
+        <v>0.04840051628588728</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9523829999999999</v>
+        <v>1.808798</v>
       </c>
       <c r="H6">
-        <v>2.857149</v>
+        <v>5.426394</v>
       </c>
       <c r="I6">
-        <v>0.04618630532204829</v>
+        <v>0.36666838522954</v>
       </c>
       <c r="J6">
-        <v>0.06493209518353291</v>
+        <v>0.4612006375427627</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.853575333333334</v>
+        <v>7.742685666666667</v>
       </c>
       <c r="N6">
-        <v>14.560726</v>
+        <v>23.228057</v>
       </c>
       <c r="O6">
-        <v>0.1973315197085667</v>
+        <v>0.4372077939946981</v>
       </c>
       <c r="P6">
-        <v>0.2378136503161547</v>
+        <v>0.4601490924567965</v>
       </c>
       <c r="Q6">
-        <v>4.622462636686</v>
+        <v>14.00495434849533</v>
       </c>
       <c r="R6">
-        <v>41.602163730174</v>
+        <v>126.044589136458</v>
       </c>
       <c r="S6">
-        <v>0.009114013818923654</v>
+        <v>0.1603102758338053</v>
       </c>
       <c r="T6">
-        <v>0.01544173857827197</v>
+        <v>0.2122210548057982</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,25 +841,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.808798</v>
+        <v>3.033388</v>
       </c>
       <c r="H7">
-        <v>5.426394</v>
+        <v>6.066776</v>
       </c>
       <c r="I7">
-        <v>0.08771859293363103</v>
+        <v>0.6149097244328354</v>
       </c>
       <c r="J7">
-        <v>0.1233212309583266</v>
+        <v>0.5156280504196953</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9703876666666665</v>
+        <v>0.4260053333333333</v>
       </c>
       <c r="N7">
-        <v>2.911163</v>
+        <v>1.278016</v>
       </c>
       <c r="O7">
-        <v>0.03945299285965206</v>
+        <v>0.02405532912416773</v>
       </c>
       <c r="P7">
-        <v>0.04754668824173518</v>
+        <v>0.02531756756689831</v>
       </c>
       <c r="Q7">
-        <v>1.755235270691333</v>
+        <v>1.292239466069333</v>
       </c>
       <c r="R7">
-        <v>15.797117436222</v>
+        <v>7.753436796416</v>
       </c>
       <c r="S7">
-        <v>0.003460761020669271</v>
+        <v>0.01479185580288314</v>
       </c>
       <c r="T7">
-        <v>0.005863516121962576</v>
+        <v>0.01305444800588868</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,25 +903,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.808798</v>
+        <v>3.033388</v>
       </c>
       <c r="H8">
-        <v>5.426394</v>
+        <v>6.066776</v>
       </c>
       <c r="I8">
-        <v>0.08771859293363103</v>
+        <v>0.6149097244328354</v>
       </c>
       <c r="J8">
-        <v>0.1233212309583266</v>
+        <v>0.5156280504196953</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>3.123578</v>
       </c>
       <c r="O8">
-        <v>0.04233170747586662</v>
+        <v>0.05879323641880037</v>
       </c>
       <c r="P8">
-        <v>0.05101596487889641</v>
+        <v>0.06187825274916518</v>
       </c>
       <c r="Q8">
-        <v>1.883307213081334</v>
+        <v>3.158341340754667</v>
       </c>
       <c r="R8">
-        <v>16.949764917732</v>
+        <v>18.950048044528</v>
       </c>
       <c r="S8">
-        <v>0.00371327781626109</v>
+        <v>0.03615253280479908</v>
       </c>
       <c r="T8">
-        <v>0.006291351587392263</v>
+        <v>0.0319061628284292</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,25 +965,25 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.808798</v>
+        <v>3.033388</v>
       </c>
       <c r="H9">
-        <v>5.426394</v>
+        <v>6.066776</v>
       </c>
       <c r="I9">
-        <v>0.08771859293363103</v>
+        <v>0.6149097244328354</v>
       </c>
       <c r="J9">
-        <v>0.1233212309583266</v>
+        <v>0.5156280504196953</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.170211333333333</v>
+        <v>5.850740666666667</v>
       </c>
       <c r="N9">
-        <v>15.510634</v>
+        <v>17.552222</v>
       </c>
       <c r="O9">
-        <v>0.2102049704707969</v>
+        <v>0.3303749538898241</v>
       </c>
       <c r="P9">
-        <v>0.2533280614069559</v>
+        <v>0.3477104875323931</v>
       </c>
       <c r="Q9">
-        <v>9.351867919310667</v>
+        <v>17.74756652937867</v>
       </c>
       <c r="R9">
-        <v>84.166811273796</v>
+        <v>106.485399176272</v>
       </c>
       <c r="S9">
-        <v>0.01843888423735377</v>
+        <v>0.2031507718559025</v>
       </c>
       <c r="T9">
-        <v>0.03124072836899235</v>
+        <v>0.1792892807968096</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,25 +1027,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.808798</v>
+        <v>3.033388</v>
       </c>
       <c r="H10">
-        <v>5.426394</v>
+        <v>6.066776</v>
       </c>
       <c r="I10">
-        <v>0.08771859293363103</v>
+        <v>0.6149097244328354</v>
       </c>
       <c r="J10">
-        <v>0.1233212309583266</v>
+        <v>0.5156280504196953</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.56068</v>
+        <v>2.648771</v>
       </c>
       <c r="N10">
-        <v>25.12136</v>
+        <v>5.297542</v>
       </c>
       <c r="O10">
-        <v>0.5106788094851177</v>
+        <v>0.1495686865725097</v>
       </c>
       <c r="P10">
-        <v>0.4102956351562577</v>
+        <v>0.1049445996947469</v>
       </c>
       <c r="Q10">
-        <v>22.71973286264</v>
+        <v>8.034750166147999</v>
       </c>
       <c r="R10">
-        <v>136.31839717584</v>
+        <v>32.139000664592</v>
       </c>
       <c r="S10">
-        <v>0.04479602660905635</v>
+        <v>0.09197123984408309</v>
       </c>
       <c r="T10">
-        <v>0.05059816278429816</v>
+        <v>0.05411237934267767</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,25 +1089,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.808798</v>
+        <v>3.033388</v>
       </c>
       <c r="H11">
-        <v>5.426394</v>
+        <v>6.066776</v>
       </c>
       <c r="I11">
-        <v>0.08771859293363103</v>
+        <v>0.6149097244328354</v>
       </c>
       <c r="J11">
-        <v>0.1233212309583266</v>
+        <v>0.5156280504196953</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.853575333333334</v>
+        <v>7.742685666666667</v>
       </c>
       <c r="N11">
-        <v>14.560726</v>
+        <v>23.228057</v>
       </c>
       <c r="O11">
-        <v>0.1973315197085667</v>
+        <v>0.4372077939946981</v>
       </c>
       <c r="P11">
-        <v>0.2378136503161547</v>
+        <v>0.4601490924567965</v>
       </c>
       <c r="Q11">
-        <v>8.779137355782668</v>
+        <v>23.48656978903866</v>
       </c>
       <c r="R11">
-        <v>79.01223620204401</v>
+        <v>140.919418734232</v>
       </c>
       <c r="S11">
-        <v>0.01730964325029056</v>
+        <v>0.2688433241251676</v>
       </c>
       <c r="T11">
-        <v>0.02932747209568123</v>
+        <v>0.2372657794458901</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,25 +1151,25 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>17.859282</v>
+        <v>0.09087633333333334</v>
       </c>
       <c r="H12">
-        <v>35.718564</v>
+        <v>0.272629</v>
       </c>
       <c r="I12">
-        <v>0.8660951017443207</v>
+        <v>0.01842189033762463</v>
       </c>
       <c r="J12">
-        <v>0.8117466738581405</v>
+        <v>0.02317131203754203</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9703876666666665</v>
+        <v>0.4260053333333333</v>
       </c>
       <c r="N12">
-        <v>2.911163</v>
+        <v>1.278016</v>
       </c>
       <c r="O12">
-        <v>0.03945299285965206</v>
+        <v>0.02405532912416773</v>
       </c>
       <c r="P12">
-        <v>0.04754668824173518</v>
+        <v>0.02531756756689831</v>
       </c>
       <c r="Q12">
-        <v>17.330426988322</v>
+        <v>0.03871380267377778</v>
       </c>
       <c r="R12">
-        <v>103.982561929932</v>
+        <v>0.348424224064</v>
       </c>
       <c r="S12">
-        <v>0.03417004386489831</v>
+        <v>0.0004431446351608858</v>
       </c>
       <c r="T12">
-        <v>0.03859586603319849</v>
+        <v>0.0005866412581241546</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,25 +1213,25 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>17.859282</v>
+        <v>0.09087633333333334</v>
       </c>
       <c r="H13">
-        <v>35.718564</v>
+        <v>0.272629</v>
       </c>
       <c r="I13">
-        <v>0.8660951017443207</v>
+        <v>0.01842189033762463</v>
       </c>
       <c r="J13">
-        <v>0.8117466738581405</v>
+        <v>0.02317131203754203</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.123578</v>
       </c>
       <c r="O13">
-        <v>0.04233170747586662</v>
+        <v>0.05879323641880037</v>
       </c>
       <c r="P13">
-        <v>0.05101596487889641</v>
+        <v>0.06187825274916518</v>
       </c>
       <c r="Q13">
-        <v>18.594953450332</v>
+        <v>0.09461977184022223</v>
       </c>
       <c r="R13">
-        <v>111.569720701992</v>
+        <v>0.851577946562</v>
       </c>
       <c r="S13">
-        <v>0.03666328449332152</v>
+        <v>0.001083082553901179</v>
       </c>
       <c r="T13">
-        <v>0.04141203980410788</v>
+        <v>0.0014338003027888</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,25 +1275,25 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>17.859282</v>
+        <v>0.09087633333333334</v>
       </c>
       <c r="H14">
-        <v>35.718564</v>
+        <v>0.272629</v>
       </c>
       <c r="I14">
-        <v>0.8660951017443207</v>
+        <v>0.01842189033762463</v>
       </c>
       <c r="J14">
-        <v>0.8117466738581405</v>
+        <v>0.02317131203754203</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.170211333333333</v>
+        <v>5.850740666666667</v>
       </c>
       <c r="N14">
-        <v>15.510634</v>
+        <v>17.552222</v>
       </c>
       <c r="O14">
-        <v>0.2102049704707969</v>
+        <v>0.3303749538898241</v>
       </c>
       <c r="P14">
-        <v>0.2533280614069559</v>
+        <v>0.3477104875323931</v>
       </c>
       <c r="Q14">
-        <v>92.336262201596</v>
+        <v>0.531693859070889</v>
       </c>
       <c r="R14">
-        <v>554.017573209576</v>
+        <v>4.785244731638</v>
       </c>
       <c r="S14">
-        <v>0.1820574952870668</v>
+        <v>0.006086131170856134</v>
       </c>
       <c r="T14">
-        <v>0.2056382112420272</v>
+        <v>0.00805690820533895</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>17.859282</v>
+        <v>0.09087633333333334</v>
       </c>
       <c r="H15">
-        <v>35.718564</v>
+        <v>0.272629</v>
       </c>
       <c r="I15">
-        <v>0.8660951017443207</v>
+        <v>0.01842189033762463</v>
       </c>
       <c r="J15">
-        <v>0.8117466738581405</v>
+        <v>0.02317131203754203</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.56068</v>
+        <v>2.648771</v>
       </c>
       <c r="N15">
-        <v>25.12136</v>
+        <v>5.297542</v>
       </c>
       <c r="O15">
-        <v>0.5106788094851177</v>
+        <v>0.1495686865725097</v>
       </c>
       <c r="P15">
-        <v>0.4102956351562577</v>
+        <v>0.1049445996947469</v>
       </c>
       <c r="Q15">
-        <v>224.32472623176</v>
+        <v>0.2407105963196667</v>
       </c>
       <c r="R15">
-        <v>897.29890492704</v>
+        <v>1.444263577918</v>
       </c>
       <c r="S15">
-        <v>0.4422964154596816</v>
+        <v>0.002755337941981324</v>
       </c>
       <c r="T15">
-        <v>0.3330561171366053</v>
+        <v>0.002431704066181918</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,25 +1399,25 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>17.859282</v>
+        <v>0.09087633333333334</v>
       </c>
       <c r="H16">
-        <v>35.718564</v>
+        <v>0.272629</v>
       </c>
       <c r="I16">
-        <v>0.8660951017443207</v>
+        <v>0.01842189033762463</v>
       </c>
       <c r="J16">
-        <v>0.8117466738581405</v>
+        <v>0.02317131203754203</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.853575333333334</v>
+        <v>7.742685666666667</v>
       </c>
       <c r="N16">
-        <v>14.560726</v>
+        <v>23.228057</v>
       </c>
       <c r="O16">
-        <v>0.1973315197085667</v>
+        <v>0.4372077939946981</v>
       </c>
       <c r="P16">
-        <v>0.2378136503161547</v>
+        <v>0.4601490924567965</v>
       </c>
       <c r="Q16">
-        <v>86.681370586244</v>
+        <v>0.7036268835392222</v>
       </c>
       <c r="R16">
-        <v>520.088223517464</v>
+        <v>6.332641951853001</v>
       </c>
       <c r="S16">
-        <v>0.1709078626393525</v>
+        <v>0.008054194035725108</v>
       </c>
       <c r="T16">
-        <v>0.1930444396422015</v>
+        <v>0.01066225820510821</v>
       </c>
     </row>
   </sheetData>
